--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -17,13 +17,13 @@
     <t>Id</t>
   </si>
   <si>
-    <t>date</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>phone</t>
+    <t>Phone</t>
   </si>
   <si>
-    <t>product</t>
+    <t>Product</t>
   </si>
   <si>
     <t>555</t>
@@ -82,6 +82,9 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="11.5390625" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -101,7 +104,7 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>43427.76961805556</v>
       </c>
       <c r="C2" t="s">
@@ -115,7 +118,7 @@
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>43429.364652777775</v>
       </c>
       <c r="C3" t="s">
